--- a/stage1_design.xlsx
+++ b/stage1_design.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2DGP\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEEE7012-EE90-4373-B089-5D26C64D6BD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D937B7-5AA1-4813-AB99-69BD3A36A3DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3246DF09-7027-424E-8B14-8F2FB28A687B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{3246DF09-7027-424E-8B14-8F2FB28A687B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="stage1" sheetId="1" r:id="rId1"/>
+    <sheet name="stage2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,9 +35,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="2">
   <si>
     <t>?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -44,7 +49,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,6 +76,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="7" tint="-0.249977111117893"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -151,7 +164,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -159,13 +172,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -210,6 +232,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -527,8 +564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0966C82-7636-4255-A9E4-51C914B9EF59}">
   <dimension ref="A2:EJ15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CF1" workbookViewId="0">
-      <selection activeCell="DP12" sqref="DP12"/>
+    <sheetView topLeftCell="CH1" workbookViewId="0">
+      <selection activeCell="CL13" sqref="CL13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.25" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -671,6 +708,9 @@
       <c r="DJ12" s="12"/>
       <c r="DK12" s="12"/>
       <c r="DL12" s="12"/>
+      <c r="DP12" t="s">
+        <v>1</v>
+      </c>
       <c r="DT12" s="13"/>
     </row>
     <row r="13" spans="1:140" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1158,5 +1198,769 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCCC489C-FF2E-4C12-AEDC-6AE212F6E034}">
+  <dimension ref="A2:EJ15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="CN1" workbookViewId="0">
+      <selection activeCell="DD14" sqref="DD14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="6.25" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="1:140" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="DT2" s="13"/>
+    </row>
+    <row r="3" spans="1:140" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BG3" s="7"/>
+      <c r="DT3" s="13"/>
+    </row>
+    <row r="4" spans="1:140" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="DT4" s="13"/>
+    </row>
+    <row r="5" spans="1:140" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="DT5" s="13"/>
+    </row>
+    <row r="6" spans="1:140" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="DD6" s="1"/>
+      <c r="DE6" s="1"/>
+      <c r="DF6" s="1"/>
+      <c r="DG6" s="1"/>
+      <c r="DH6" s="1"/>
+      <c r="DI6" s="1"/>
+      <c r="DJ6" s="1"/>
+      <c r="DK6" s="1"/>
+      <c r="DL6" s="1"/>
+      <c r="DT6" s="13"/>
+    </row>
+    <row r="7" spans="1:140" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R7" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="BD7" s="1"/>
+      <c r="BE7" s="1"/>
+      <c r="BF7" s="1"/>
+      <c r="BG7" s="1"/>
+      <c r="BH7" s="1"/>
+      <c r="BK7" s="1"/>
+      <c r="BL7" s="1"/>
+      <c r="BM7" s="1"/>
+      <c r="BN7" s="1"/>
+      <c r="BZ7" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="CX7" s="2"/>
+      <c r="CY7" s="2"/>
+      <c r="CZ7" s="2"/>
+      <c r="DA7" s="2"/>
+      <c r="DD7" s="1"/>
+      <c r="DE7" s="1"/>
+      <c r="DF7" s="1"/>
+      <c r="DG7" s="1"/>
+      <c r="DH7" s="1"/>
+      <c r="DI7" s="1"/>
+      <c r="DJ7" s="1"/>
+      <c r="DK7" s="1"/>
+      <c r="DL7" s="1"/>
+      <c r="DT7" s="13"/>
+    </row>
+    <row r="8" spans="1:140" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="3"/>
+      <c r="AF8" s="3"/>
+      <c r="AG8" s="3"/>
+      <c r="AH8" s="3"/>
+      <c r="AI8" s="3"/>
+      <c r="AJ8" s="3"/>
+      <c r="DD8" s="1"/>
+      <c r="DE8" s="1"/>
+      <c r="DF8" s="1"/>
+      <c r="DG8" s="1"/>
+      <c r="DH8" s="1"/>
+      <c r="DI8" s="1"/>
+      <c r="DJ8" s="1"/>
+      <c r="DK8" s="1"/>
+      <c r="DL8" s="1"/>
+      <c r="DT8" s="13"/>
+    </row>
+    <row r="9" spans="1:140" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="DD9" s="1"/>
+      <c r="DE9" s="1"/>
+      <c r="DF9" s="1"/>
+      <c r="DG9" s="1"/>
+      <c r="DH9" s="1"/>
+      <c r="DI9" s="1"/>
+      <c r="DJ9" s="1"/>
+      <c r="DK9" s="1"/>
+      <c r="DL9" s="1"/>
+      <c r="DT9" s="13"/>
+    </row>
+    <row r="10" spans="1:140" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AY10" s="12"/>
+      <c r="AZ10" s="12"/>
+      <c r="DD10" s="1"/>
+      <c r="DE10" s="1"/>
+      <c r="DF10" s="1"/>
+      <c r="DG10" s="1"/>
+      <c r="DH10" s="1"/>
+      <c r="DI10" s="1"/>
+      <c r="DJ10" s="1"/>
+      <c r="DK10" s="1"/>
+      <c r="DL10" s="1"/>
+      <c r="DT10" s="13"/>
+    </row>
+    <row r="11" spans="1:140" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+      <c r="AI11" s="8"/>
+      <c r="AJ11" s="8"/>
+      <c r="AK11" s="3"/>
+      <c r="AL11" s="3"/>
+      <c r="AM11" s="3"/>
+      <c r="AN11" s="15"/>
+      <c r="AO11" s="3"/>
+      <c r="AP11" s="3"/>
+      <c r="AX11" s="12"/>
+      <c r="AY11" s="12"/>
+      <c r="AZ11" s="12"/>
+      <c r="BA11" s="3"/>
+      <c r="BB11" s="3"/>
+      <c r="BC11" s="3"/>
+      <c r="BD11" s="3"/>
+      <c r="BE11" s="3"/>
+      <c r="BF11" s="3"/>
+      <c r="BG11" s="3"/>
+      <c r="BH11" s="3"/>
+      <c r="BI11" s="3"/>
+      <c r="BJ11" s="3"/>
+      <c r="BN11" s="1"/>
+      <c r="BO11" s="1"/>
+      <c r="BP11" s="1"/>
+      <c r="BQ11" s="1"/>
+      <c r="BR11" s="1"/>
+      <c r="BV11" s="3"/>
+      <c r="BW11" s="18"/>
+      <c r="BX11" s="18"/>
+      <c r="CR11" s="2"/>
+      <c r="CS11" s="2"/>
+      <c r="CT11" s="2"/>
+      <c r="CU11" s="2"/>
+      <c r="DD11" s="1"/>
+      <c r="DE11" s="1"/>
+      <c r="DF11" s="1"/>
+      <c r="DG11" s="1"/>
+      <c r="DH11" s="1"/>
+      <c r="DI11" s="1"/>
+      <c r="DJ11" s="1"/>
+      <c r="DK11" s="1"/>
+      <c r="DL11" s="1"/>
+      <c r="DT11" s="13"/>
+    </row>
+    <row r="12" spans="1:140" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U12" s="3"/>
+      <c r="AC12" s="8"/>
+      <c r="AD12" s="8"/>
+      <c r="AE12" s="3"/>
+      <c r="AI12" s="8"/>
+      <c r="AJ12" s="8"/>
+      <c r="AW12" s="12"/>
+      <c r="AX12" s="12"/>
+      <c r="AY12" s="12"/>
+      <c r="AZ12" s="12"/>
+      <c r="BA12" s="3"/>
+      <c r="BB12" s="3"/>
+      <c r="BC12" s="3"/>
+      <c r="BD12" s="3"/>
+      <c r="BE12" s="3"/>
+      <c r="BF12" s="3"/>
+      <c r="BG12" s="3"/>
+      <c r="BH12" s="3"/>
+      <c r="BI12" s="3"/>
+      <c r="BJ12" s="3"/>
+      <c r="BV12" s="3"/>
+      <c r="BW12" s="18"/>
+      <c r="BX12" s="18"/>
+      <c r="DA12" s="7"/>
+      <c r="DD12" s="1"/>
+      <c r="DE12" s="1"/>
+      <c r="DF12" s="1"/>
+      <c r="DG12" s="1"/>
+      <c r="DH12" s="1"/>
+      <c r="DI12" s="1"/>
+      <c r="DJ12" s="1"/>
+      <c r="DK12" s="1"/>
+      <c r="DL12" s="1"/>
+      <c r="DP12" t="s">
+        <v>1</v>
+      </c>
+      <c r="DT12" s="13"/>
+    </row>
+    <row r="13" spans="1:140" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="AC13" s="8"/>
+      <c r="AD13" s="8"/>
+      <c r="AE13" s="3"/>
+      <c r="AF13" s="7"/>
+      <c r="AI13" s="8"/>
+      <c r="AJ13" s="8"/>
+      <c r="AV13" s="12"/>
+      <c r="AW13" s="12"/>
+      <c r="AX13" s="12"/>
+      <c r="AY13" s="12"/>
+      <c r="AZ13" s="12"/>
+      <c r="BA13" s="3"/>
+      <c r="BB13" s="3"/>
+      <c r="BC13" s="3"/>
+      <c r="BD13" s="3"/>
+      <c r="BE13" s="3"/>
+      <c r="BF13" s="3"/>
+      <c r="BG13" s="3"/>
+      <c r="BH13" s="3"/>
+      <c r="BI13" s="3"/>
+      <c r="BJ13" s="3"/>
+      <c r="BV13" s="3"/>
+      <c r="BW13" s="18"/>
+      <c r="BX13" s="18"/>
+      <c r="DD13" s="1"/>
+      <c r="DE13" s="1"/>
+      <c r="DF13" s="1"/>
+      <c r="DG13" s="1"/>
+      <c r="DH13" s="1"/>
+      <c r="DI13" s="1"/>
+      <c r="DJ13" s="1"/>
+      <c r="DK13" s="1"/>
+      <c r="DL13" s="1"/>
+      <c r="DT13" s="13"/>
+    </row>
+    <row r="14" spans="1:140" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="4"/>
+      <c r="L14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="U14" s="3"/>
+      <c r="AB14" s="3"/>
+      <c r="AC14" s="8"/>
+      <c r="AD14" s="8"/>
+      <c r="AE14" s="3"/>
+      <c r="AI14" s="8"/>
+      <c r="AJ14" s="8"/>
+      <c r="AL14" s="6"/>
+      <c r="AS14" s="6"/>
+      <c r="AU14" s="17"/>
+      <c r="AV14" s="17"/>
+      <c r="AW14" s="17"/>
+      <c r="AX14" s="12"/>
+      <c r="AY14" s="12"/>
+      <c r="AZ14" s="12"/>
+      <c r="BA14" s="3"/>
+      <c r="BB14" s="3"/>
+      <c r="BC14" s="3"/>
+      <c r="BD14" s="3"/>
+      <c r="BE14" s="5"/>
+      <c r="BF14" s="3"/>
+      <c r="BG14" s="3"/>
+      <c r="BH14" s="3"/>
+      <c r="BI14" s="3"/>
+      <c r="BJ14" s="5"/>
+      <c r="BV14" s="3"/>
+      <c r="BW14" s="19"/>
+      <c r="BX14" s="19"/>
+      <c r="CA14" s="9"/>
+      <c r="CE14" s="10"/>
+      <c r="CP14" s="5"/>
+      <c r="CT14" s="5"/>
+      <c r="DD14" s="1"/>
+      <c r="DE14" s="1"/>
+      <c r="DF14" s="1"/>
+      <c r="DG14" s="1"/>
+      <c r="DH14" s="1"/>
+      <c r="DI14" s="1"/>
+      <c r="DJ14" s="1"/>
+      <c r="DK14" s="1"/>
+      <c r="DL14" s="1"/>
+      <c r="DT14" s="13"/>
+    </row>
+    <row r="15" spans="1:140" s="11" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="11">
+        <v>50</v>
+      </c>
+      <c r="B15" s="11">
+        <v>100</v>
+      </c>
+      <c r="C15" s="11">
+        <v>150</v>
+      </c>
+      <c r="D15" s="11">
+        <v>200</v>
+      </c>
+      <c r="E15" s="11">
+        <v>250</v>
+      </c>
+      <c r="F15" s="11">
+        <v>300</v>
+      </c>
+      <c r="G15" s="11">
+        <v>350</v>
+      </c>
+      <c r="H15" s="11">
+        <v>400</v>
+      </c>
+      <c r="I15" s="11">
+        <v>450</v>
+      </c>
+      <c r="J15" s="11">
+        <v>500</v>
+      </c>
+      <c r="K15" s="11">
+        <v>550</v>
+      </c>
+      <c r="L15" s="11">
+        <v>600</v>
+      </c>
+      <c r="M15" s="11">
+        <v>650</v>
+      </c>
+      <c r="N15" s="11">
+        <v>700</v>
+      </c>
+      <c r="O15" s="11">
+        <v>750</v>
+      </c>
+      <c r="P15" s="11">
+        <v>800</v>
+      </c>
+      <c r="Q15" s="11">
+        <v>850</v>
+      </c>
+      <c r="R15" s="11">
+        <v>900</v>
+      </c>
+      <c r="S15" s="11">
+        <v>950</v>
+      </c>
+      <c r="T15" s="11">
+        <v>1000</v>
+      </c>
+      <c r="U15" s="11">
+        <v>1050</v>
+      </c>
+      <c r="V15" s="11">
+        <v>1100</v>
+      </c>
+      <c r="W15" s="11">
+        <v>1150</v>
+      </c>
+      <c r="X15" s="11">
+        <v>1200</v>
+      </c>
+      <c r="Y15" s="11">
+        <v>1250</v>
+      </c>
+      <c r="Z15" s="11">
+        <v>1300</v>
+      </c>
+      <c r="AA15" s="11">
+        <v>1350</v>
+      </c>
+      <c r="AB15" s="11">
+        <v>1400</v>
+      </c>
+      <c r="AC15" s="11">
+        <v>1450</v>
+      </c>
+      <c r="AD15" s="11">
+        <v>1500</v>
+      </c>
+      <c r="AE15" s="11">
+        <v>1550</v>
+      </c>
+      <c r="AF15" s="11">
+        <v>1600</v>
+      </c>
+      <c r="AG15" s="11">
+        <v>1650</v>
+      </c>
+      <c r="AH15" s="11">
+        <v>1700</v>
+      </c>
+      <c r="AI15" s="11">
+        <v>1750</v>
+      </c>
+      <c r="AJ15" s="11">
+        <v>1800</v>
+      </c>
+      <c r="AK15" s="11">
+        <v>1850</v>
+      </c>
+      <c r="AL15" s="11">
+        <v>1900</v>
+      </c>
+      <c r="AM15" s="11">
+        <v>1950</v>
+      </c>
+      <c r="AN15" s="11">
+        <v>2000</v>
+      </c>
+      <c r="AO15" s="11">
+        <v>2050</v>
+      </c>
+      <c r="AP15" s="11">
+        <v>2100</v>
+      </c>
+      <c r="AQ15" s="11">
+        <v>2150</v>
+      </c>
+      <c r="AR15" s="11">
+        <v>2200</v>
+      </c>
+      <c r="AS15" s="11">
+        <v>2250</v>
+      </c>
+      <c r="AT15" s="11">
+        <v>2300</v>
+      </c>
+      <c r="AU15" s="11">
+        <v>2350</v>
+      </c>
+      <c r="AV15" s="11">
+        <v>2400</v>
+      </c>
+      <c r="AW15" s="11">
+        <v>2450</v>
+      </c>
+      <c r="AX15" s="11">
+        <v>2500</v>
+      </c>
+      <c r="AY15" s="11">
+        <v>2550</v>
+      </c>
+      <c r="AZ15" s="11">
+        <v>2600</v>
+      </c>
+      <c r="BA15" s="11">
+        <v>2650</v>
+      </c>
+      <c r="BB15" s="11">
+        <v>2700</v>
+      </c>
+      <c r="BC15" s="11">
+        <v>2750</v>
+      </c>
+      <c r="BD15" s="11">
+        <v>2800</v>
+      </c>
+      <c r="BE15" s="11">
+        <v>2850</v>
+      </c>
+      <c r="BF15" s="11">
+        <v>2900</v>
+      </c>
+      <c r="BG15" s="11">
+        <v>2950</v>
+      </c>
+      <c r="BH15" s="11">
+        <v>3000</v>
+      </c>
+      <c r="BI15" s="11">
+        <v>3050</v>
+      </c>
+      <c r="BJ15" s="11">
+        <v>3100</v>
+      </c>
+      <c r="BK15" s="11">
+        <v>3150</v>
+      </c>
+      <c r="BL15" s="11">
+        <v>3200</v>
+      </c>
+      <c r="BM15" s="11">
+        <v>3250</v>
+      </c>
+      <c r="BN15" s="11">
+        <v>3300</v>
+      </c>
+      <c r="BO15" s="11">
+        <v>3350</v>
+      </c>
+      <c r="BP15" s="11">
+        <v>3400</v>
+      </c>
+      <c r="BQ15" s="11">
+        <v>3450</v>
+      </c>
+      <c r="BR15" s="11">
+        <v>3500</v>
+      </c>
+      <c r="BS15" s="11">
+        <v>3550</v>
+      </c>
+      <c r="BT15" s="11">
+        <v>3600</v>
+      </c>
+      <c r="BU15" s="11">
+        <v>3650</v>
+      </c>
+      <c r="BV15" s="11">
+        <v>3700</v>
+      </c>
+      <c r="BW15" s="11">
+        <v>3750</v>
+      </c>
+      <c r="BX15" s="11">
+        <v>3800</v>
+      </c>
+      <c r="BY15" s="11">
+        <v>3850</v>
+      </c>
+      <c r="BZ15" s="11">
+        <v>3900</v>
+      </c>
+      <c r="CA15" s="11">
+        <v>3950</v>
+      </c>
+      <c r="CB15" s="11">
+        <v>4000</v>
+      </c>
+      <c r="CC15" s="11">
+        <v>4050</v>
+      </c>
+      <c r="CD15" s="11">
+        <v>4100</v>
+      </c>
+      <c r="CE15" s="11">
+        <v>4150</v>
+      </c>
+      <c r="CF15" s="11">
+        <v>4200</v>
+      </c>
+      <c r="CG15" s="11">
+        <v>4250</v>
+      </c>
+      <c r="CH15" s="11">
+        <v>4300</v>
+      </c>
+      <c r="CI15" s="11">
+        <v>4350</v>
+      </c>
+      <c r="CJ15" s="11">
+        <v>4400</v>
+      </c>
+      <c r="CK15" s="11">
+        <v>4450</v>
+      </c>
+      <c r="CL15" s="11">
+        <v>4500</v>
+      </c>
+      <c r="CM15" s="11">
+        <v>4550</v>
+      </c>
+      <c r="CN15" s="11">
+        <v>4600</v>
+      </c>
+      <c r="CO15" s="11">
+        <v>4650</v>
+      </c>
+      <c r="CP15" s="11">
+        <v>4700</v>
+      </c>
+      <c r="CQ15" s="11">
+        <v>4750</v>
+      </c>
+      <c r="CR15" s="11">
+        <v>4800</v>
+      </c>
+      <c r="CS15" s="11">
+        <v>4850</v>
+      </c>
+      <c r="CT15" s="11">
+        <v>4900</v>
+      </c>
+      <c r="CU15" s="11">
+        <v>4950</v>
+      </c>
+      <c r="CV15" s="11">
+        <v>5000</v>
+      </c>
+      <c r="CW15" s="11">
+        <v>5050</v>
+      </c>
+      <c r="CX15" s="11">
+        <v>5100</v>
+      </c>
+      <c r="CY15" s="11">
+        <v>5150</v>
+      </c>
+      <c r="CZ15" s="11">
+        <v>5200</v>
+      </c>
+      <c r="DA15" s="11">
+        <v>5250</v>
+      </c>
+      <c r="DB15" s="11">
+        <v>5300</v>
+      </c>
+      <c r="DC15" s="11">
+        <v>5350</v>
+      </c>
+      <c r="DD15" s="11">
+        <v>5400</v>
+      </c>
+      <c r="DE15" s="11">
+        <v>5450</v>
+      </c>
+      <c r="DF15" s="11">
+        <v>5500</v>
+      </c>
+      <c r="DG15" s="11">
+        <v>5550</v>
+      </c>
+      <c r="DH15" s="11">
+        <v>5600</v>
+      </c>
+      <c r="DI15" s="11">
+        <v>5650</v>
+      </c>
+      <c r="DJ15" s="11">
+        <v>5700</v>
+      </c>
+      <c r="DK15" s="11">
+        <v>5750</v>
+      </c>
+      <c r="DL15" s="11">
+        <v>5800</v>
+      </c>
+      <c r="DM15" s="11">
+        <v>5850</v>
+      </c>
+      <c r="DN15" s="11">
+        <v>5900</v>
+      </c>
+      <c r="DO15" s="11">
+        <v>5950</v>
+      </c>
+      <c r="DP15" s="11">
+        <v>6000</v>
+      </c>
+      <c r="DQ15" s="11">
+        <v>6050</v>
+      </c>
+      <c r="DR15" s="11">
+        <v>6100</v>
+      </c>
+      <c r="DS15" s="11">
+        <v>6150</v>
+      </c>
+      <c r="DT15" s="11">
+        <v>6200</v>
+      </c>
+      <c r="DU15" s="11">
+        <v>6250</v>
+      </c>
+      <c r="DV15" s="11">
+        <v>6300</v>
+      </c>
+      <c r="DW15" s="11">
+        <v>6350</v>
+      </c>
+      <c r="DX15" s="11">
+        <v>6400</v>
+      </c>
+      <c r="DY15" s="11">
+        <v>6450</v>
+      </c>
+      <c r="DZ15" s="11">
+        <v>6500</v>
+      </c>
+      <c r="EA15" s="11">
+        <v>6550</v>
+      </c>
+      <c r="EB15" s="11">
+        <v>6600</v>
+      </c>
+      <c r="EC15" s="11">
+        <v>6650</v>
+      </c>
+      <c r="ED15" s="11">
+        <v>6700</v>
+      </c>
+      <c r="EE15" s="11">
+        <v>6750</v>
+      </c>
+      <c r="EF15" s="11">
+        <v>6800</v>
+      </c>
+      <c r="EG15" s="11">
+        <v>6850</v>
+      </c>
+      <c r="EH15" s="11">
+        <v>6900</v>
+      </c>
+      <c r="EI15" s="11">
+        <v>6950</v>
+      </c>
+      <c r="EJ15" s="11">
+        <v>7000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/stage1_design.xlsx
+++ b/stage1_design.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2DGP\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D937B7-5AA1-4813-AB99-69BD3A36A3DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A1164C3-AFED-4BE4-953C-49C3A54CFF2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{3246DF09-7027-424E-8B14-8F2FB28A687B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{3246DF09-7027-424E-8B14-8F2FB28A687B}"/>
   </bookViews>
   <sheets>
     <sheet name="stage1" sheetId="1" r:id="rId1"/>
     <sheet name="stage2" sheetId="2" r:id="rId2"/>
+    <sheet name="boss" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,13 +36,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="3">
   <si>
     <t>?</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>s</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -90,7 +95,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -163,6 +168,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -187,7 +216,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -246,6 +275,36 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1206,8 +1265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCCC489C-FF2E-4C12-AEDC-6AE212F6E034}">
   <dimension ref="A2:EJ15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CN1" workbookViewId="0">
-      <selection activeCell="DD14" sqref="DD14"/>
+    <sheetView topLeftCell="CN1" workbookViewId="0">
+      <selection activeCell="CN1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.25" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1963,4 +2022,1496 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A9999BA-5B49-4A86-85CB-441163E49E7A}">
+  <dimension ref="A1:EJ16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="BL1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11:N11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="6.25" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:140" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="20"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20"/>
+      <c r="X1" s="20"/>
+      <c r="Y1" s="20"/>
+      <c r="Z1" s="20"/>
+      <c r="AA1" s="20"/>
+      <c r="AB1" s="20"/>
+      <c r="AC1" s="20"/>
+      <c r="AD1" s="20"/>
+      <c r="AE1" s="20"/>
+      <c r="AF1" s="20"/>
+      <c r="AG1" s="20"/>
+      <c r="AH1" s="20"/>
+      <c r="AI1" s="20"/>
+      <c r="AJ1" s="20"/>
+      <c r="AK1" s="20"/>
+      <c r="AL1" s="20"/>
+      <c r="AM1" s="20"/>
+      <c r="AN1" s="20"/>
+      <c r="AO1" s="20"/>
+      <c r="AP1" s="20"/>
+      <c r="AQ1" s="20"/>
+      <c r="AR1" s="20"/>
+      <c r="AS1" s="20"/>
+      <c r="AT1" s="20"/>
+      <c r="AU1" s="20"/>
+      <c r="AV1" s="20"/>
+      <c r="AW1" s="20"/>
+      <c r="AX1" s="20"/>
+      <c r="AY1" s="20"/>
+      <c r="AZ1" s="20"/>
+      <c r="BA1" s="20"/>
+      <c r="BB1" s="20"/>
+      <c r="BC1" s="20"/>
+      <c r="BD1" s="20"/>
+      <c r="BE1" s="20"/>
+      <c r="BF1" s="20"/>
+      <c r="BG1" s="20"/>
+      <c r="BH1" s="20"/>
+      <c r="BI1" s="20"/>
+      <c r="BJ1" s="20"/>
+      <c r="BK1" s="20"/>
+      <c r="BL1" s="20"/>
+      <c r="BM1" s="20"/>
+      <c r="BN1" s="20"/>
+      <c r="BO1" s="20"/>
+      <c r="BP1" s="20"/>
+      <c r="BQ1" s="20"/>
+      <c r="BR1" s="20"/>
+      <c r="BS1" s="20"/>
+      <c r="BT1" s="20"/>
+      <c r="BU1" s="20"/>
+      <c r="BV1" s="20"/>
+      <c r="BW1" s="20"/>
+      <c r="BX1" s="20"/>
+      <c r="BY1" s="20"/>
+      <c r="BZ1" s="20"/>
+      <c r="CA1" s="20"/>
+      <c r="CB1" s="20"/>
+      <c r="CC1" s="20"/>
+      <c r="CD1" s="20"/>
+      <c r="CE1" s="20"/>
+      <c r="CF1" s="20"/>
+      <c r="CG1" s="20"/>
+      <c r="CH1" s="20"/>
+      <c r="CI1" s="20"/>
+      <c r="CJ1" s="20"/>
+      <c r="CK1" s="20"/>
+      <c r="CL1" s="20"/>
+      <c r="CM1" s="20"/>
+      <c r="CN1" s="20"/>
+      <c r="CO1" s="20"/>
+      <c r="CP1" s="20"/>
+      <c r="CQ1" s="20"/>
+      <c r="CR1" s="20"/>
+      <c r="CS1" s="20"/>
+      <c r="CT1" s="20"/>
+      <c r="CU1" s="20"/>
+      <c r="CV1" s="20"/>
+      <c r="CW1" s="20"/>
+      <c r="CX1" s="20"/>
+      <c r="CY1" s="20"/>
+      <c r="CZ1" s="20"/>
+      <c r="DA1" s="20"/>
+      <c r="DB1" s="20"/>
+      <c r="DC1" s="20"/>
+      <c r="DD1" s="20"/>
+      <c r="DE1" s="20"/>
+      <c r="DF1" s="20"/>
+      <c r="DG1" s="20"/>
+      <c r="DH1" s="20"/>
+      <c r="DI1" s="20"/>
+      <c r="DJ1" s="20"/>
+      <c r="DK1" s="20"/>
+      <c r="DL1" s="20"/>
+      <c r="DM1" s="20"/>
+      <c r="DN1" s="20"/>
+      <c r="DO1" s="20"/>
+      <c r="DP1" s="20"/>
+      <c r="DQ1" s="20"/>
+    </row>
+    <row r="2" spans="1:140" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="20"/>
+      <c r="Z2" s="20"/>
+      <c r="AA2" s="20"/>
+      <c r="AB2" s="20"/>
+      <c r="AC2" s="20"/>
+      <c r="AD2" s="20"/>
+      <c r="AE2" s="20"/>
+      <c r="AF2" s="20"/>
+      <c r="AW2" s="20"/>
+      <c r="AX2" s="20"/>
+      <c r="AY2" s="20"/>
+      <c r="AZ2" s="20"/>
+      <c r="BA2" s="20"/>
+      <c r="BB2" s="20"/>
+      <c r="BC2" s="20"/>
+      <c r="BD2" s="20"/>
+      <c r="BE2" s="20"/>
+      <c r="BF2" s="20"/>
+      <c r="BG2" s="20"/>
+      <c r="BH2" s="20"/>
+      <c r="BI2" s="20"/>
+      <c r="BJ2" s="20"/>
+      <c r="BK2" s="20"/>
+      <c r="BL2" s="20"/>
+      <c r="BM2" s="20"/>
+      <c r="BN2" s="20"/>
+      <c r="BO2" s="20"/>
+      <c r="BP2" s="20"/>
+      <c r="BQ2" s="20"/>
+      <c r="BR2" s="20"/>
+      <c r="BS2" s="20"/>
+      <c r="BT2" s="20"/>
+      <c r="BU2" s="20"/>
+      <c r="BV2" s="20"/>
+      <c r="BW2" s="20"/>
+      <c r="BX2" s="20"/>
+      <c r="BY2" s="20"/>
+      <c r="BZ2" s="20"/>
+      <c r="CA2" s="20"/>
+      <c r="CB2" s="20"/>
+      <c r="CC2" s="20"/>
+      <c r="CD2" s="20"/>
+      <c r="CE2" s="20"/>
+      <c r="CF2" s="20"/>
+      <c r="CG2" s="20"/>
+      <c r="CH2" s="20"/>
+      <c r="CI2" s="20"/>
+      <c r="CJ2" s="20"/>
+      <c r="CK2" s="3"/>
+      <c r="CL2" s="3"/>
+      <c r="CM2" s="3"/>
+      <c r="CN2" s="3"/>
+      <c r="CO2" s="3"/>
+      <c r="CP2" s="3"/>
+      <c r="CQ2" s="3"/>
+      <c r="CR2" s="3"/>
+      <c r="CS2" s="3"/>
+      <c r="CT2" s="3"/>
+      <c r="CU2" s="3"/>
+      <c r="CV2" s="3"/>
+      <c r="CW2" s="3"/>
+      <c r="CX2" s="3"/>
+      <c r="CY2" s="3"/>
+      <c r="CZ2" s="3"/>
+      <c r="DA2" s="3"/>
+      <c r="DB2" s="3"/>
+      <c r="DC2" s="3"/>
+      <c r="DD2" s="3"/>
+      <c r="DE2" s="20"/>
+      <c r="DF2" s="20"/>
+      <c r="DT2" s="13"/>
+    </row>
+    <row r="3" spans="1:140" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="20"/>
+      <c r="V3" s="20"/>
+      <c r="W3" s="20"/>
+      <c r="X3" s="20"/>
+      <c r="Y3" s="20"/>
+      <c r="Z3" s="20"/>
+      <c r="AA3" s="20"/>
+      <c r="AB3" s="20"/>
+      <c r="AC3" s="20"/>
+      <c r="AD3" s="20"/>
+      <c r="AE3" s="20"/>
+      <c r="AF3" s="20"/>
+      <c r="AX3" s="20"/>
+      <c r="AY3" s="20"/>
+      <c r="AZ3" s="20"/>
+      <c r="BA3" s="20"/>
+      <c r="BB3" s="20"/>
+      <c r="BC3" s="20"/>
+      <c r="BD3" s="20"/>
+      <c r="BE3" s="20"/>
+      <c r="BF3" s="20"/>
+      <c r="BG3" s="20"/>
+      <c r="BH3" s="20"/>
+      <c r="BI3" s="20"/>
+      <c r="BJ3" s="20"/>
+      <c r="BK3" s="20"/>
+      <c r="BL3" s="20"/>
+      <c r="BM3" s="20"/>
+      <c r="BN3" s="20"/>
+      <c r="BO3" s="20"/>
+      <c r="BP3" s="20"/>
+      <c r="BQ3" s="20"/>
+      <c r="BR3" s="20"/>
+      <c r="BS3" s="20"/>
+      <c r="BT3" s="20"/>
+      <c r="BU3" s="20"/>
+      <c r="BV3" s="20"/>
+      <c r="BW3" s="20"/>
+      <c r="BX3" s="20"/>
+      <c r="BY3" s="20"/>
+      <c r="BZ3" s="20"/>
+      <c r="CA3" s="20"/>
+      <c r="CB3" s="20"/>
+      <c r="CC3" s="20"/>
+      <c r="CD3" s="20"/>
+      <c r="CE3" s="20"/>
+      <c r="CF3" s="20"/>
+      <c r="CG3" s="20"/>
+      <c r="CH3" s="20"/>
+      <c r="CI3" s="20"/>
+      <c r="CJ3" s="20"/>
+      <c r="CK3" s="3"/>
+      <c r="CL3" s="3"/>
+      <c r="CM3" s="3"/>
+      <c r="CN3" s="3"/>
+      <c r="CO3" s="3"/>
+      <c r="CP3" s="3"/>
+      <c r="CQ3" s="3"/>
+      <c r="CR3" s="3"/>
+      <c r="CS3" s="3"/>
+      <c r="CT3" s="3"/>
+      <c r="CU3" s="3"/>
+      <c r="CV3" s="3"/>
+      <c r="CW3" s="3"/>
+      <c r="CX3" s="3"/>
+      <c r="CY3" s="3"/>
+      <c r="CZ3" s="3"/>
+      <c r="DA3" s="3"/>
+      <c r="DB3" s="3"/>
+      <c r="DC3" s="3"/>
+      <c r="DD3" s="3"/>
+      <c r="DE3" s="20"/>
+      <c r="DF3" s="20"/>
+      <c r="DT3" s="13"/>
+    </row>
+    <row r="4" spans="1:140" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="20"/>
+      <c r="V4" s="20"/>
+      <c r="W4" s="20"/>
+      <c r="X4" s="20"/>
+      <c r="Y4" s="20"/>
+      <c r="Z4" s="20"/>
+      <c r="AA4" s="20"/>
+      <c r="AB4" s="20"/>
+      <c r="AC4" s="20"/>
+      <c r="AD4" s="20"/>
+      <c r="AE4" s="20"/>
+      <c r="AF4" s="20"/>
+      <c r="AK4" s="7"/>
+      <c r="AY4" s="3"/>
+      <c r="AZ4" s="3"/>
+      <c r="BA4" s="3"/>
+      <c r="BB4" s="3"/>
+      <c r="BC4" s="3"/>
+      <c r="BD4" s="3"/>
+      <c r="BE4" s="3"/>
+      <c r="BF4" s="3"/>
+      <c r="BG4" s="3"/>
+      <c r="BH4" s="3"/>
+      <c r="BI4" s="3"/>
+      <c r="CF4" s="20"/>
+      <c r="CG4" s="20"/>
+      <c r="CH4" s="20"/>
+      <c r="CI4" s="20"/>
+      <c r="CJ4" s="20"/>
+      <c r="DE4" s="20"/>
+      <c r="DF4" s="20"/>
+      <c r="DT4" s="13"/>
+    </row>
+    <row r="5" spans="1:140" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="AY5" s="3"/>
+      <c r="AZ5" s="3"/>
+      <c r="BA5" s="3"/>
+      <c r="BB5" s="3"/>
+      <c r="BC5" s="3"/>
+      <c r="BD5" s="3"/>
+      <c r="BE5" s="3"/>
+      <c r="BF5" s="3"/>
+      <c r="BG5" s="3"/>
+      <c r="BH5" s="3"/>
+      <c r="BI5" s="3"/>
+      <c r="CF5" s="20"/>
+      <c r="CG5" s="20"/>
+      <c r="CH5" s="20"/>
+      <c r="CI5" s="20"/>
+      <c r="CJ5" s="20"/>
+      <c r="DE5" s="20"/>
+      <c r="DF5" s="20"/>
+      <c r="DT5" s="13"/>
+    </row>
+    <row r="6" spans="1:140" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="AP6" s="20"/>
+      <c r="AQ6" s="20"/>
+      <c r="AR6" s="20"/>
+      <c r="AS6" s="20"/>
+      <c r="AT6" s="20"/>
+      <c r="AY6" s="3"/>
+      <c r="AZ6" s="3"/>
+      <c r="BA6" s="3"/>
+      <c r="BB6" s="3"/>
+      <c r="BC6" s="3"/>
+      <c r="BD6" s="3"/>
+      <c r="BE6" s="3"/>
+      <c r="BF6" s="3"/>
+      <c r="BG6" s="3"/>
+      <c r="BH6" s="3"/>
+      <c r="BI6" s="3"/>
+      <c r="CF6" s="20"/>
+      <c r="CG6" s="20"/>
+      <c r="CH6" s="20"/>
+      <c r="CI6" s="20"/>
+      <c r="CJ6" s="20"/>
+      <c r="CU6" s="3"/>
+      <c r="CV6" s="3"/>
+      <c r="CW6" s="3"/>
+      <c r="CX6" s="3"/>
+      <c r="CY6" s="3"/>
+      <c r="CZ6" s="3"/>
+      <c r="DA6" s="3"/>
+      <c r="DB6" s="3"/>
+      <c r="DC6" s="3"/>
+      <c r="DT6" s="13"/>
+    </row>
+    <row r="7" spans="1:140" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="AP7" s="20"/>
+      <c r="AQ7" s="20"/>
+      <c r="AR7" s="20"/>
+      <c r="AS7" s="20"/>
+      <c r="AT7" s="20"/>
+      <c r="AY7" s="3"/>
+      <c r="AZ7" s="3"/>
+      <c r="BA7" s="3"/>
+      <c r="BB7" s="3"/>
+      <c r="BC7" s="3"/>
+      <c r="BD7" s="3"/>
+      <c r="BE7" s="3"/>
+      <c r="BF7" s="3"/>
+      <c r="BG7" s="3"/>
+      <c r="BH7" s="3"/>
+      <c r="BI7" s="3"/>
+      <c r="BQ7" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="CU7" s="3"/>
+      <c r="CV7" s="2"/>
+      <c r="CW7" s="2"/>
+      <c r="CX7" s="2"/>
+      <c r="CY7" s="2"/>
+      <c r="CZ7" s="3"/>
+      <c r="DA7" s="3"/>
+      <c r="DB7" s="3"/>
+      <c r="DC7" s="3"/>
+      <c r="DT7" s="13"/>
+    </row>
+    <row r="8" spans="1:140" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="20"/>
+      <c r="AB8" s="20"/>
+      <c r="AC8" s="20"/>
+      <c r="AD8" s="20"/>
+      <c r="AE8" s="20"/>
+      <c r="AF8" s="20"/>
+      <c r="AG8" s="3"/>
+      <c r="AH8" s="3"/>
+      <c r="AI8" s="3"/>
+      <c r="AJ8" s="20"/>
+      <c r="AK8" s="20"/>
+      <c r="AL8" s="20"/>
+      <c r="AP8" s="20"/>
+      <c r="AQ8" s="20"/>
+      <c r="AR8" s="20"/>
+      <c r="AS8" s="20"/>
+      <c r="AT8" s="20"/>
+      <c r="AY8" s="3"/>
+      <c r="AZ8" s="3"/>
+      <c r="BA8" s="3"/>
+      <c r="BB8" s="3"/>
+      <c r="BC8" s="3"/>
+      <c r="BD8" s="3"/>
+      <c r="BE8" s="3"/>
+      <c r="BF8" s="3"/>
+      <c r="BG8" s="3"/>
+      <c r="BH8" s="3"/>
+      <c r="BI8" s="3"/>
+      <c r="CU8" s="3"/>
+      <c r="CV8" s="3"/>
+      <c r="CW8" s="3"/>
+      <c r="CX8" s="3"/>
+      <c r="CY8" s="3"/>
+      <c r="CZ8" s="3"/>
+      <c r="DA8" s="3"/>
+      <c r="DB8" s="3"/>
+      <c r="DC8" s="3"/>
+      <c r="DD8" s="29"/>
+      <c r="DT8" s="13"/>
+    </row>
+    <row r="9" spans="1:140" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="20"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="AA9" s="20"/>
+      <c r="AB9" s="20"/>
+      <c r="AC9" s="20"/>
+      <c r="AD9" s="20"/>
+      <c r="AE9" s="20"/>
+      <c r="AF9" s="20"/>
+      <c r="AJ9" s="20"/>
+      <c r="AK9" s="20"/>
+      <c r="AL9" s="20"/>
+      <c r="AP9" s="20"/>
+      <c r="AQ9" s="20"/>
+      <c r="AR9" s="20"/>
+      <c r="AS9" s="20"/>
+      <c r="AT9" s="20"/>
+      <c r="AY9" s="3"/>
+      <c r="AZ9" s="3"/>
+      <c r="BA9" s="3"/>
+      <c r="BB9" s="3"/>
+      <c r="BC9" s="3"/>
+      <c r="BD9" s="3"/>
+      <c r="BE9" s="3"/>
+      <c r="BF9" s="3"/>
+      <c r="BG9" s="3"/>
+      <c r="BH9" s="3"/>
+      <c r="BI9" s="3"/>
+      <c r="CU9" s="3"/>
+      <c r="CV9" s="3"/>
+      <c r="CW9" s="3"/>
+      <c r="CX9" s="10"/>
+      <c r="CY9" s="10"/>
+      <c r="CZ9" s="3"/>
+      <c r="DA9" s="3"/>
+      <c r="DB9" s="3"/>
+      <c r="DC9" s="3"/>
+      <c r="DD9" s="20"/>
+      <c r="DE9" s="20"/>
+      <c r="DF9" s="20"/>
+      <c r="DT9" s="13"/>
+    </row>
+    <row r="10" spans="1:140" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="AA10" s="20"/>
+      <c r="AB10" s="20"/>
+      <c r="AC10" s="20"/>
+      <c r="AD10" s="20"/>
+      <c r="AE10" s="20"/>
+      <c r="AF10" s="20"/>
+      <c r="AJ10" s="20"/>
+      <c r="AK10" s="20"/>
+      <c r="AL10" s="20"/>
+      <c r="AP10" s="20"/>
+      <c r="AQ10" s="20"/>
+      <c r="AR10" s="20"/>
+      <c r="AS10" s="20"/>
+      <c r="AT10" s="20"/>
+      <c r="AY10" s="1"/>
+      <c r="AZ10" s="3"/>
+      <c r="BA10" s="3"/>
+      <c r="BB10" s="3"/>
+      <c r="BC10" s="3"/>
+      <c r="BD10" s="3"/>
+      <c r="BE10" s="3"/>
+      <c r="BF10" s="3"/>
+      <c r="BG10" s="1"/>
+      <c r="BH10" s="3"/>
+      <c r="BI10" s="3"/>
+      <c r="CU10" s="3"/>
+      <c r="CV10" s="3"/>
+      <c r="CW10" s="3"/>
+      <c r="CX10" s="10"/>
+      <c r="CY10" s="10"/>
+      <c r="CZ10" s="3"/>
+      <c r="DA10" s="3"/>
+      <c r="DB10" s="3"/>
+      <c r="DC10" s="3"/>
+      <c r="DD10" s="20"/>
+      <c r="DE10" s="20"/>
+      <c r="DF10" s="20"/>
+      <c r="DT10" s="13"/>
+    </row>
+    <row r="11" spans="1:140" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="20"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="20"/>
+      <c r="Y11" s="20"/>
+      <c r="Z11" s="20"/>
+      <c r="AA11" s="20"/>
+      <c r="AB11" s="20"/>
+      <c r="AC11" s="20"/>
+      <c r="AD11" s="20"/>
+      <c r="AE11" s="20"/>
+      <c r="AF11" s="20"/>
+      <c r="AI11" s="3"/>
+      <c r="AJ11" s="20"/>
+      <c r="AK11" s="20"/>
+      <c r="AL11" s="20"/>
+      <c r="AM11" s="3"/>
+      <c r="AN11" s="15"/>
+      <c r="AO11" s="3"/>
+      <c r="AP11" s="20"/>
+      <c r="AQ11" s="20"/>
+      <c r="AR11" s="20"/>
+      <c r="AS11" s="20"/>
+      <c r="AT11" s="20"/>
+      <c r="AU11" s="20"/>
+      <c r="AV11" s="20"/>
+      <c r="AW11" s="20"/>
+      <c r="AX11" s="20"/>
+      <c r="AY11" s="20"/>
+      <c r="AZ11" s="20"/>
+      <c r="BA11" s="20"/>
+      <c r="BB11" s="20"/>
+      <c r="BC11" s="20"/>
+      <c r="BD11" s="20"/>
+      <c r="BE11" s="20"/>
+      <c r="BF11" s="20"/>
+      <c r="BG11" s="20"/>
+      <c r="BH11" s="20"/>
+      <c r="BI11" s="20"/>
+      <c r="BJ11" s="20"/>
+      <c r="BK11" s="20"/>
+      <c r="BL11" s="20"/>
+      <c r="BM11" s="20"/>
+      <c r="BN11" s="24"/>
+      <c r="BO11" s="24"/>
+      <c r="BP11" s="20"/>
+      <c r="BY11" s="20"/>
+      <c r="BZ11" s="20"/>
+      <c r="CA11" s="20"/>
+      <c r="CF11" s="20"/>
+      <c r="CG11" s="20"/>
+      <c r="CH11" s="20"/>
+      <c r="CI11" s="20"/>
+      <c r="CJ11" s="20"/>
+      <c r="CK11" s="23"/>
+      <c r="CL11" s="23"/>
+      <c r="CM11" s="23"/>
+      <c r="CN11" s="23"/>
+      <c r="CO11" s="23"/>
+      <c r="CP11" s="23"/>
+      <c r="CQ11" s="23"/>
+      <c r="CR11" s="23"/>
+      <c r="CS11" s="23"/>
+      <c r="CT11" s="23"/>
+      <c r="CU11" s="23"/>
+      <c r="CV11" s="23"/>
+      <c r="CW11" s="23"/>
+      <c r="CX11" s="23"/>
+      <c r="CY11" s="23"/>
+      <c r="CZ11" s="23"/>
+      <c r="DA11" s="23"/>
+      <c r="DB11" s="23"/>
+      <c r="DC11" s="23"/>
+      <c r="DD11" s="20"/>
+      <c r="DE11" s="20"/>
+      <c r="DF11" s="20"/>
+      <c r="DT11" s="13"/>
+    </row>
+    <row r="12" spans="1:140" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="20"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="20"/>
+      <c r="Y12" s="20"/>
+      <c r="Z12" s="20"/>
+      <c r="AA12" s="20"/>
+      <c r="AB12" s="20"/>
+      <c r="AC12" s="20"/>
+      <c r="AD12" s="20"/>
+      <c r="AE12" s="20"/>
+      <c r="AF12" s="20"/>
+      <c r="AI12" s="3"/>
+      <c r="AJ12" s="20"/>
+      <c r="AK12" s="20"/>
+      <c r="AL12" s="20"/>
+      <c r="AP12" s="20"/>
+      <c r="AQ12" s="20"/>
+      <c r="AR12" s="20"/>
+      <c r="AS12" s="20"/>
+      <c r="AT12" s="20"/>
+      <c r="AU12" s="20"/>
+      <c r="AV12" s="20"/>
+      <c r="AW12" s="20"/>
+      <c r="AX12" s="20"/>
+      <c r="AY12" s="20"/>
+      <c r="AZ12" s="20"/>
+      <c r="BA12" s="20"/>
+      <c r="BB12" s="20"/>
+      <c r="BC12" s="20"/>
+      <c r="BD12" s="20"/>
+      <c r="BE12" s="20"/>
+      <c r="BF12" s="20"/>
+      <c r="BG12" s="20"/>
+      <c r="BH12" s="20"/>
+      <c r="BI12" s="20"/>
+      <c r="BJ12" s="20"/>
+      <c r="BK12" s="20"/>
+      <c r="BL12" s="20"/>
+      <c r="BM12" s="20"/>
+      <c r="BN12" s="24"/>
+      <c r="BO12" s="24"/>
+      <c r="BP12" s="20"/>
+      <c r="BY12" s="20"/>
+      <c r="BZ12" s="20"/>
+      <c r="CA12" s="20"/>
+      <c r="CF12" s="20"/>
+      <c r="CG12" s="20"/>
+      <c r="CH12" s="20"/>
+      <c r="CI12" s="20"/>
+      <c r="CJ12" s="20"/>
+      <c r="CK12" s="23"/>
+      <c r="CL12" s="23"/>
+      <c r="CM12" s="23"/>
+      <c r="CN12" s="23"/>
+      <c r="CO12" s="23"/>
+      <c r="CP12" s="23"/>
+      <c r="CQ12" s="23"/>
+      <c r="CR12" s="23"/>
+      <c r="CS12" s="23"/>
+      <c r="CT12" s="23"/>
+      <c r="CU12" s="23"/>
+      <c r="CV12" s="23"/>
+      <c r="CW12" s="23"/>
+      <c r="CX12" s="23"/>
+      <c r="CY12" s="23"/>
+      <c r="CZ12" s="23"/>
+      <c r="DA12" s="23"/>
+      <c r="DB12" s="23"/>
+      <c r="DC12" s="23"/>
+      <c r="DD12" s="20"/>
+      <c r="DE12" s="20"/>
+      <c r="DF12" s="20"/>
+      <c r="DP12" t="s">
+        <v>1</v>
+      </c>
+      <c r="DT12" s="13"/>
+    </row>
+    <row r="13" spans="1:140" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="20"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="20"/>
+      <c r="U13" s="26"/>
+      <c r="V13" s="26"/>
+      <c r="W13" s="26"/>
+      <c r="X13" s="20"/>
+      <c r="Y13" s="20"/>
+      <c r="Z13" s="20"/>
+      <c r="AA13" s="20"/>
+      <c r="AB13" s="20"/>
+      <c r="AC13" s="20"/>
+      <c r="AD13" s="20"/>
+      <c r="AE13" s="20"/>
+      <c r="AF13" s="20"/>
+      <c r="AG13" s="26"/>
+      <c r="AH13" s="26"/>
+      <c r="AI13" s="26"/>
+      <c r="AJ13" s="20"/>
+      <c r="AK13" s="20"/>
+      <c r="AL13" s="20"/>
+      <c r="AM13" s="26"/>
+      <c r="AN13" s="26"/>
+      <c r="AO13" s="26"/>
+      <c r="AP13" s="20"/>
+      <c r="AQ13" s="20"/>
+      <c r="AR13" s="20"/>
+      <c r="AS13" s="20"/>
+      <c r="AT13" s="20"/>
+      <c r="AU13" s="20"/>
+      <c r="AV13" s="20"/>
+      <c r="AW13" s="20"/>
+      <c r="AX13" s="20"/>
+      <c r="AY13" s="20"/>
+      <c r="AZ13" s="20"/>
+      <c r="BA13" s="20"/>
+      <c r="BB13" s="20"/>
+      <c r="BC13" s="20"/>
+      <c r="BD13" s="20"/>
+      <c r="BE13" s="20"/>
+      <c r="BF13" s="20"/>
+      <c r="BG13" s="20"/>
+      <c r="BH13" s="20"/>
+      <c r="BI13" s="20"/>
+      <c r="BJ13" s="20"/>
+      <c r="BK13" s="20"/>
+      <c r="BL13" s="20"/>
+      <c r="BM13" s="20"/>
+      <c r="BN13" s="24"/>
+      <c r="BO13" s="24"/>
+      <c r="BP13" s="20"/>
+      <c r="BY13" s="20"/>
+      <c r="BZ13" s="20"/>
+      <c r="CA13" s="20"/>
+      <c r="CF13" s="20"/>
+      <c r="CG13" s="20"/>
+      <c r="CH13" s="20"/>
+      <c r="CI13" s="20"/>
+      <c r="CJ13" s="20"/>
+      <c r="CK13" s="4"/>
+      <c r="CL13" s="4"/>
+      <c r="CM13" s="4"/>
+      <c r="CN13" s="4"/>
+      <c r="CO13" s="4"/>
+      <c r="CP13" s="4"/>
+      <c r="CQ13" s="4"/>
+      <c r="CR13" s="4"/>
+      <c r="CS13" s="4"/>
+      <c r="CT13" s="4"/>
+      <c r="CU13" s="4"/>
+      <c r="CV13" s="4"/>
+      <c r="CW13" s="4"/>
+      <c r="CX13" s="4"/>
+      <c r="CY13" s="4"/>
+      <c r="CZ13" s="4"/>
+      <c r="DA13" s="4"/>
+      <c r="DB13" s="4"/>
+      <c r="DC13" s="4"/>
+      <c r="DD13" s="20"/>
+      <c r="DE13" s="20"/>
+      <c r="DF13" s="20"/>
+      <c r="DT13" s="13"/>
+    </row>
+    <row r="14" spans="1:140" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="20"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="20"/>
+      <c r="U14" s="26"/>
+      <c r="V14" s="26"/>
+      <c r="W14" s="26"/>
+      <c r="X14" s="20"/>
+      <c r="Y14" s="20"/>
+      <c r="Z14" s="20"/>
+      <c r="AA14" s="20"/>
+      <c r="AB14" s="20"/>
+      <c r="AC14" s="20"/>
+      <c r="AD14" s="20"/>
+      <c r="AE14" s="20"/>
+      <c r="AF14" s="20"/>
+      <c r="AG14" s="26"/>
+      <c r="AH14" s="26"/>
+      <c r="AI14" s="26"/>
+      <c r="AJ14" s="20"/>
+      <c r="AK14" s="20"/>
+      <c r="AL14" s="20"/>
+      <c r="AM14" s="26"/>
+      <c r="AN14" s="26"/>
+      <c r="AO14" s="26"/>
+      <c r="AP14" s="20"/>
+      <c r="AQ14" s="20"/>
+      <c r="AR14" s="20"/>
+      <c r="AS14" s="20"/>
+      <c r="AT14" s="20"/>
+      <c r="AU14" s="28"/>
+      <c r="AV14" s="28"/>
+      <c r="AW14" s="28"/>
+      <c r="AX14" s="20"/>
+      <c r="AY14" s="20"/>
+      <c r="AZ14" s="20"/>
+      <c r="BA14" s="20"/>
+      <c r="BB14" s="20"/>
+      <c r="BC14" s="20"/>
+      <c r="BD14" s="20"/>
+      <c r="BE14" s="20"/>
+      <c r="BF14" s="20"/>
+      <c r="BG14" s="20"/>
+      <c r="BH14" s="20"/>
+      <c r="BI14" s="20"/>
+      <c r="BJ14" s="20"/>
+      <c r="BK14" s="20"/>
+      <c r="BL14" s="20"/>
+      <c r="BM14" s="20"/>
+      <c r="BN14" s="25"/>
+      <c r="BO14" s="25"/>
+      <c r="BP14" s="20"/>
+      <c r="BR14" s="9"/>
+      <c r="BV14" s="10"/>
+      <c r="BY14" s="20"/>
+      <c r="BZ14" s="20"/>
+      <c r="CA14" s="20"/>
+      <c r="CF14" s="20"/>
+      <c r="CG14" s="20"/>
+      <c r="CH14" s="20"/>
+      <c r="CI14" s="20"/>
+      <c r="CJ14" s="20"/>
+      <c r="CK14" s="4"/>
+      <c r="CL14" s="4"/>
+      <c r="CM14" s="4"/>
+      <c r="CN14" s="4"/>
+      <c r="CO14" s="4"/>
+      <c r="CP14" s="4"/>
+      <c r="CQ14" s="4"/>
+      <c r="CR14" s="4"/>
+      <c r="CS14" s="4"/>
+      <c r="CT14" s="4"/>
+      <c r="CU14" s="4"/>
+      <c r="CV14" s="4"/>
+      <c r="CW14" s="4"/>
+      <c r="CX14" s="4"/>
+      <c r="CY14" s="4"/>
+      <c r="CZ14" s="4"/>
+      <c r="DA14" s="4"/>
+      <c r="DB14" s="4"/>
+      <c r="DC14" s="4"/>
+      <c r="DD14" s="20"/>
+      <c r="DE14" s="20"/>
+      <c r="DF14" s="20"/>
+      <c r="DT14" s="13"/>
+    </row>
+    <row r="15" spans="1:140" s="11" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="21">
+        <v>50</v>
+      </c>
+      <c r="B15" s="21">
+        <v>100</v>
+      </c>
+      <c r="C15" s="21">
+        <v>150</v>
+      </c>
+      <c r="D15" s="21">
+        <v>200</v>
+      </c>
+      <c r="E15" s="21">
+        <v>250</v>
+      </c>
+      <c r="F15" s="21">
+        <v>300</v>
+      </c>
+      <c r="G15" s="21">
+        <v>350</v>
+      </c>
+      <c r="H15" s="21">
+        <v>400</v>
+      </c>
+      <c r="I15" s="21">
+        <v>450</v>
+      </c>
+      <c r="J15" s="21">
+        <v>500</v>
+      </c>
+      <c r="K15" s="21">
+        <v>550</v>
+      </c>
+      <c r="L15" s="21">
+        <v>600</v>
+      </c>
+      <c r="M15" s="21">
+        <v>650</v>
+      </c>
+      <c r="N15" s="21">
+        <v>700</v>
+      </c>
+      <c r="O15" s="27">
+        <v>750</v>
+      </c>
+      <c r="P15" s="27">
+        <v>800</v>
+      </c>
+      <c r="Q15" s="27">
+        <v>850</v>
+      </c>
+      <c r="R15" s="21">
+        <v>900</v>
+      </c>
+      <c r="S15" s="21">
+        <v>950</v>
+      </c>
+      <c r="T15" s="21">
+        <v>1000</v>
+      </c>
+      <c r="U15" s="27">
+        <v>1050</v>
+      </c>
+      <c r="V15" s="27">
+        <v>1100</v>
+      </c>
+      <c r="W15" s="27">
+        <v>1150</v>
+      </c>
+      <c r="X15" s="21">
+        <v>1200</v>
+      </c>
+      <c r="Y15" s="21">
+        <v>1250</v>
+      </c>
+      <c r="Z15" s="21">
+        <v>1300</v>
+      </c>
+      <c r="AA15" s="21">
+        <v>1350</v>
+      </c>
+      <c r="AB15" s="21">
+        <v>1400</v>
+      </c>
+      <c r="AC15" s="21">
+        <v>1450</v>
+      </c>
+      <c r="AD15" s="21">
+        <v>1500</v>
+      </c>
+      <c r="AE15" s="21">
+        <v>1550</v>
+      </c>
+      <c r="AF15" s="21">
+        <v>1600</v>
+      </c>
+      <c r="AG15" s="27">
+        <v>1650</v>
+      </c>
+      <c r="AH15" s="27">
+        <v>1700</v>
+      </c>
+      <c r="AI15" s="27">
+        <v>1750</v>
+      </c>
+      <c r="AJ15" s="21">
+        <v>1800</v>
+      </c>
+      <c r="AK15" s="21">
+        <v>1850</v>
+      </c>
+      <c r="AL15" s="21">
+        <v>1900</v>
+      </c>
+      <c r="AM15" s="27">
+        <v>1950</v>
+      </c>
+      <c r="AN15" s="27">
+        <v>2000</v>
+      </c>
+      <c r="AO15" s="27">
+        <v>2050</v>
+      </c>
+      <c r="AP15" s="21">
+        <v>2100</v>
+      </c>
+      <c r="AQ15" s="21">
+        <v>2150</v>
+      </c>
+      <c r="AR15" s="21">
+        <v>2200</v>
+      </c>
+      <c r="AS15" s="21">
+        <v>2250</v>
+      </c>
+      <c r="AT15" s="21">
+        <v>2300</v>
+      </c>
+      <c r="AU15" s="21">
+        <v>2350</v>
+      </c>
+      <c r="AV15" s="21">
+        <v>2400</v>
+      </c>
+      <c r="AW15" s="21">
+        <v>2450</v>
+      </c>
+      <c r="AX15" s="21">
+        <v>2500</v>
+      </c>
+      <c r="AY15" s="21">
+        <v>2550</v>
+      </c>
+      <c r="AZ15" s="21">
+        <v>2600</v>
+      </c>
+      <c r="BA15" s="21">
+        <v>2650</v>
+      </c>
+      <c r="BB15" s="21">
+        <v>2700</v>
+      </c>
+      <c r="BC15" s="21">
+        <v>2750</v>
+      </c>
+      <c r="BD15" s="21">
+        <v>2800</v>
+      </c>
+      <c r="BE15" s="21">
+        <v>2850</v>
+      </c>
+      <c r="BF15" s="21">
+        <v>2900</v>
+      </c>
+      <c r="BG15" s="21">
+        <v>2950</v>
+      </c>
+      <c r="BH15" s="21">
+        <v>3000</v>
+      </c>
+      <c r="BI15" s="21">
+        <v>3050</v>
+      </c>
+      <c r="BJ15" s="21">
+        <v>3100</v>
+      </c>
+      <c r="BK15" s="21">
+        <v>3150</v>
+      </c>
+      <c r="BL15" s="21">
+        <v>3200</v>
+      </c>
+      <c r="BM15" s="21">
+        <v>3250</v>
+      </c>
+      <c r="BN15" s="21">
+        <v>3300</v>
+      </c>
+      <c r="BO15" s="21">
+        <v>3350</v>
+      </c>
+      <c r="BP15" s="21">
+        <v>3400</v>
+      </c>
+      <c r="BQ15" s="21">
+        <v>3450</v>
+      </c>
+      <c r="BR15" s="21">
+        <v>3500</v>
+      </c>
+      <c r="BS15" s="21">
+        <v>3550</v>
+      </c>
+      <c r="BT15" s="21">
+        <v>3600</v>
+      </c>
+      <c r="BU15" s="21">
+        <v>3650</v>
+      </c>
+      <c r="BV15" s="21">
+        <v>3700</v>
+      </c>
+      <c r="BW15" s="21">
+        <v>3750</v>
+      </c>
+      <c r="BX15" s="21">
+        <v>3800</v>
+      </c>
+      <c r="BY15" s="21">
+        <v>3850</v>
+      </c>
+      <c r="BZ15" s="21">
+        <v>3900</v>
+      </c>
+      <c r="CA15" s="21">
+        <v>3950</v>
+      </c>
+      <c r="CB15" s="21">
+        <v>4000</v>
+      </c>
+      <c r="CC15" s="21">
+        <v>4050</v>
+      </c>
+      <c r="CD15" s="21">
+        <v>4100</v>
+      </c>
+      <c r="CE15" s="21">
+        <v>4150</v>
+      </c>
+      <c r="CF15" s="21">
+        <v>4200</v>
+      </c>
+      <c r="CG15" s="21">
+        <v>4250</v>
+      </c>
+      <c r="CH15" s="21">
+        <v>4300</v>
+      </c>
+      <c r="CI15" s="21">
+        <v>4350</v>
+      </c>
+      <c r="CJ15" s="21">
+        <v>4400</v>
+      </c>
+      <c r="CK15" s="21">
+        <v>4450</v>
+      </c>
+      <c r="CL15" s="21">
+        <v>4500</v>
+      </c>
+      <c r="CM15" s="21">
+        <v>4550</v>
+      </c>
+      <c r="CN15" s="21">
+        <v>4600</v>
+      </c>
+      <c r="CO15" s="21">
+        <v>4650</v>
+      </c>
+      <c r="CP15" s="21">
+        <v>4700</v>
+      </c>
+      <c r="CQ15" s="21">
+        <v>4750</v>
+      </c>
+      <c r="CR15" s="21">
+        <v>4800</v>
+      </c>
+      <c r="CS15" s="21">
+        <v>4850</v>
+      </c>
+      <c r="CT15" s="21">
+        <v>4900</v>
+      </c>
+      <c r="CU15" s="21">
+        <v>4950</v>
+      </c>
+      <c r="CV15" s="21">
+        <v>5000</v>
+      </c>
+      <c r="CW15" s="21">
+        <v>5050</v>
+      </c>
+      <c r="CX15" s="21">
+        <v>5100</v>
+      </c>
+      <c r="CY15" s="21">
+        <v>5150</v>
+      </c>
+      <c r="CZ15" s="21">
+        <v>5200</v>
+      </c>
+      <c r="DA15" s="21">
+        <v>5250</v>
+      </c>
+      <c r="DB15" s="21">
+        <v>5300</v>
+      </c>
+      <c r="DC15" s="21">
+        <v>5350</v>
+      </c>
+      <c r="DD15" s="21">
+        <v>5400</v>
+      </c>
+      <c r="DE15" s="21">
+        <v>5450</v>
+      </c>
+      <c r="DF15" s="21">
+        <v>5500</v>
+      </c>
+      <c r="DG15" s="21">
+        <v>5550</v>
+      </c>
+      <c r="DH15" s="21">
+        <v>5600</v>
+      </c>
+      <c r="DI15" s="21">
+        <v>5650</v>
+      </c>
+      <c r="DJ15" s="21">
+        <v>5700</v>
+      </c>
+      <c r="DK15" s="21">
+        <v>5750</v>
+      </c>
+      <c r="DL15" s="21">
+        <v>5800</v>
+      </c>
+      <c r="DM15" s="21">
+        <v>5850</v>
+      </c>
+      <c r="DN15" s="21">
+        <v>5900</v>
+      </c>
+      <c r="DO15" s="21">
+        <v>5950</v>
+      </c>
+      <c r="DP15" s="21">
+        <v>6000</v>
+      </c>
+      <c r="DQ15" s="21">
+        <v>6050</v>
+      </c>
+      <c r="DR15" s="21">
+        <v>6100</v>
+      </c>
+      <c r="DS15" s="21">
+        <v>6150</v>
+      </c>
+      <c r="DT15" s="21">
+        <v>6200</v>
+      </c>
+      <c r="DU15" s="21">
+        <v>6250</v>
+      </c>
+      <c r="DV15" s="21">
+        <v>6300</v>
+      </c>
+      <c r="DW15" s="21">
+        <v>6350</v>
+      </c>
+      <c r="DX15" s="21">
+        <v>6400</v>
+      </c>
+      <c r="DY15" s="21">
+        <v>6450</v>
+      </c>
+      <c r="DZ15" s="11">
+        <v>6500</v>
+      </c>
+      <c r="EA15" s="11">
+        <v>6550</v>
+      </c>
+      <c r="EB15" s="11">
+        <v>6600</v>
+      </c>
+      <c r="EC15" s="11">
+        <v>6650</v>
+      </c>
+      <c r="ED15" s="11">
+        <v>6700</v>
+      </c>
+      <c r="EE15" s="11">
+        <v>6750</v>
+      </c>
+      <c r="EF15" s="11">
+        <v>6800</v>
+      </c>
+      <c r="EG15" s="11">
+        <v>6850</v>
+      </c>
+      <c r="EH15" s="11">
+        <v>6900</v>
+      </c>
+      <c r="EI15" s="11">
+        <v>6950</v>
+      </c>
+      <c r="EJ15" s="11">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:140" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>